--- a/data/elderly_welfare_facility/data.xlsx
+++ b/data/elderly_welfare_facility/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2428,9 +2428,41 @@
         <v>30</v>
       </c>
     </row>
+    <row r="47">
+      <c r="B47" t="str">
+        <v>34.3501599</v>
+      </c>
+      <c r="C47" t="str">
+        <v>134.0033746</v>
+      </c>
+      <c r="D47" t="str">
+        <v>特別養護老人ホーム　一樹</v>
+      </c>
+      <c r="E47" t="str">
+        <v>高松市香西本町１７番地９</v>
+      </c>
+      <c r="F47" t="str">
+        <v>087-813-4360</v>
+      </c>
+      <c r="G47" t="str">
+        <v>https://syurikai.com/facility/tokuyou-ichiju/</v>
+      </c>
+      <c r="I47" t="str">
+        <v>介護老人福祉施設（特別養護老人ホーム）</v>
+      </c>
+      <c r="J47" t="str">
+        <v>月火水木金土日</v>
+      </c>
+      <c r="M47" t="str">
+        <v>24時間対応</v>
+      </c>
+      <c r="N47" t="str">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N46"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N47"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/elderly_welfare_facility/data.xlsx
+++ b/data/elderly_welfare_facility/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -539,19 +539,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>34.3374875</v>
+        <v>34.333483891624894</v>
       </c>
       <c r="C4" t="str">
-        <v>134.02980333</v>
+        <v>134.0444148832138</v>
       </c>
       <c r="D4" t="str">
         <v>特別養護老人ホーム　さぬき</v>
       </c>
       <c r="E4" t="str">
-        <v>高松市宮脇町二丁目37-21</v>
+        <v>高松市中野町26-29</v>
       </c>
       <c r="F4" t="str">
-        <v>087-831-4451</v>
+        <v>087-802-2067</v>
       </c>
       <c r="G4" t="str">
         <v>http://www.sanuki-sha.or.jp/sanuki/moving/special.html</v>
@@ -2429,6 +2429,9 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="str">
+        <v>46</v>
+      </c>
       <c r="B47" t="str">
         <v>34.3501599</v>
       </c>
@@ -2447,11 +2450,20 @@
       <c r="G47" t="str">
         <v>https://syurikai.com/facility/tokuyou-ichiju/</v>
       </c>
+      <c r="H47" t="str">
+        <v/>
+      </c>
       <c r="I47" t="str">
         <v>介護老人福祉施設（特別養護老人ホーム）</v>
       </c>
       <c r="J47" t="str">
         <v>月火水木金土日</v>
+      </c>
+      <c r="K47" t="str">
+        <v/>
+      </c>
+      <c r="L47" t="str">
+        <v/>
       </c>
       <c r="M47" t="str">
         <v>24時間対応</v>
@@ -2460,9 +2472,44 @@
         <v>29</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>47</v>
+      </c>
+      <c r="B48" t="str">
+        <v>34.34168814566888</v>
+      </c>
+      <c r="C48" t="str">
+        <v>134.04142199828937</v>
+      </c>
+      <c r="D48" t="str">
+        <v>地域密着型特別養護老人ホーム　マイルドハート番町</v>
+      </c>
+      <c r="E48" t="str">
+        <v>高松市番町三丁目14番15号</v>
+      </c>
+      <c r="F48" t="str">
+        <v>087-899-2710</v>
+      </c>
+      <c r="G48" t="str">
+        <v>https://www.utazufukushikai.or.jp/bancho/</v>
+      </c>
+      <c r="I48" t="str">
+        <v>地域密着型介護老人福祉施設入所者生活介護（地域密着型特別養護老人ホーム）</v>
+      </c>
+      <c r="J48" t="str">
+        <v>月火水木金土日</v>
+      </c>
+      <c r="M48" t="str">
+        <v>24時間対応</v>
+      </c>
+      <c r="N48" t="str">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N47"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N48"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/elderly_welfare_facility/data.xlsx
+++ b/data/elderly_welfare_facility/data.xlsx
@@ -2454,7 +2454,7 @@
         <v/>
       </c>
       <c r="I47" t="str">
-        <v>介護老人福祉施設（特別養護老人ホーム）</v>
+        <v>地域密着型介護老人福祉施設入所者生活介護（地域密着型特別養護老人ホーム）</v>
       </c>
       <c r="J47" t="str">
         <v>月火水木金土日</v>
@@ -2494,11 +2494,20 @@
       <c r="G48" t="str">
         <v>https://www.utazufukushikai.or.jp/bancho/</v>
       </c>
+      <c r="H48" t="str">
+        <v/>
+      </c>
       <c r="I48" t="str">
         <v>地域密着型介護老人福祉施設入所者生活介護（地域密着型特別養護老人ホーム）</v>
       </c>
       <c r="J48" t="str">
         <v>月火水木金土日</v>
+      </c>
+      <c r="K48" t="str">
+        <v/>
+      </c>
+      <c r="L48" t="str">
+        <v/>
       </c>
       <c r="M48" t="str">
         <v>24時間対応</v>

--- a/data/elderly_welfare_facility/data.xlsx
+++ b/data/elderly_welfare_facility/data.xlsx
@@ -554,7 +554,7 @@
         <v>087-802-2067</v>
       </c>
       <c r="G4" t="str">
-        <v>http://www.sanuki-sha.or.jp/sanuki/moving/special.html</v>
+        <v>https://sanuki-sha.or.jp/business/tokubetsu/sanuki.html</v>
       </c>
       <c r="H4" t="str">
         <v/>
@@ -642,7 +642,7 @@
         <v>087-848-0800</v>
       </c>
       <c r="G6" t="str">
-        <v>https://www.sumire-fukushi.jp/sumire/</v>
+        <v>https://hatsukikai.or.jp/sumire/</v>
       </c>
       <c r="H6" t="str">
         <v/>
@@ -774,7 +774,7 @@
         <v>087-868-0700</v>
       </c>
       <c r="G9" t="str">
-        <v>https://www.sumire-fukushi.jp/sakura/</v>
+        <v>https://hatsukikai.or.jp/sakura/</v>
       </c>
       <c r="H9" t="str">
         <v/>
@@ -994,7 +994,7 @@
         <v>087-815-1800</v>
       </c>
       <c r="G14" t="str">
-        <v>https://www.sumire-fukushi.jp/olive/</v>
+        <v>https://hatsukikai.or.jp/olive/</v>
       </c>
       <c r="H14" t="str">
         <v/>
@@ -1038,7 +1038,7 @@
         <v>087-844-8500</v>
       </c>
       <c r="G15" t="str">
-        <v>http://www.syurikai.com/relation/kourien.php</v>
+        <v>https://syurikai.com/facility/kourien/</v>
       </c>
       <c r="H15" t="str">
         <v/>
@@ -1346,7 +1346,7 @@
         <v>087-845-4417</v>
       </c>
       <c r="G22" t="str">
-        <v>http://www.syurikai.com/relation/syurien.php</v>
+        <v>https://syurikai.com/facility/syurien/</v>
       </c>
       <c r="H22" t="str">
         <v/>
@@ -1434,7 +1434,7 @@
         <v>087-879-3344</v>
       </c>
       <c r="G24" t="str">
-        <v>https://www.sumire-fukushi.jp/anju</v>
+        <v>https://hatsukikai.or.jp/anju/</v>
       </c>
       <c r="H24" t="str">
         <v>※名称の「あん」は木偏に「安」と表示する</v>
@@ -1478,7 +1478,7 @@
         <v>087-879-0123</v>
       </c>
       <c r="G25" t="str">
-        <v>http://www.sansan-kai.com/sansanso/index.html</v>
+        <v>https://www.sansan-kai.com/facility/sunsunso/</v>
       </c>
       <c r="H25" t="str">
         <v/>
@@ -1610,7 +1610,7 @@
         <v>087-831-4451</v>
       </c>
       <c r="G28" t="str">
-        <v>http://www.sanuki-sha.or.jp/sanuki/moving/normal.html</v>
+        <v>https://sanuki-sha.or.jp/business/yogo/sanuki.html</v>
       </c>
       <c r="H28" t="str">
         <v/>
@@ -1654,7 +1654,7 @@
         <v>087-879-3346</v>
       </c>
       <c r="G29" t="str">
-        <v>https://www.sumire-fukushi.jp/anju/guide/azeria.html</v>
+        <v>https://hatsukikai.or.jp/anju/guide/azeria.html</v>
       </c>
       <c r="H29" t="str">
         <v/>
@@ -1698,7 +1698,7 @@
         <v>087-868-0800</v>
       </c>
       <c r="G30" t="str">
-        <v>https://www.sumire-fukushi.jp/sakura/guide/care_house.html</v>
+        <v>https://hatsukikai.or.jp/sakura/guide/care_house.html</v>
       </c>
       <c r="H30" t="str">
         <v/>
@@ -1742,7 +1742,7 @@
         <v>087-841-7006</v>
       </c>
       <c r="G31" t="str">
-        <v>http://www.zuishou.net/jigyou/sunrich</v>
+        <v>https://www.zuishou.net/rich/</v>
       </c>
       <c r="H31" t="str">
         <v/>
@@ -1874,7 +1874,7 @@
         <v>087-863-7366</v>
       </c>
       <c r="G34" t="str">
-        <v>http://www.sanuki-sha.or.jp/sanuki/life/index.html</v>
+        <v>https://sanuki-sha.or.jp/about/caresanuki/</v>
       </c>
       <c r="H34" t="str">
         <v/>
@@ -1918,7 +1918,7 @@
         <v>087-841-2220</v>
       </c>
       <c r="G35" t="str">
-        <v>http://www.lucksay.com/care.html</v>
+        <v>https://www.lucksay.com/service/carehouse/</v>
       </c>
       <c r="H35" t="str">
         <v/>
@@ -2138,7 +2138,7 @@
         <v>087-893-0502</v>
       </c>
       <c r="G40" t="str">
-        <v>http://www.kensyokai.group/institution/care/libre.html</v>
+        <v>https://www.kenshokai.group/institution/care/libre/</v>
       </c>
       <c r="H40" t="str">
         <v/>
@@ -2226,7 +2226,7 @@
         <v>087-868-0700</v>
       </c>
       <c r="G42" t="str">
-        <v>https://www.sumire-fukushi.jp/sakura/</v>
+        <v>https://hatsukikai.or.jp/sakura/about/</v>
       </c>
       <c r="H42" t="str">
         <v/>
@@ -2270,7 +2270,7 @@
         <v>087-802-8100</v>
       </c>
       <c r="G43" t="str">
-        <v>https://www.sumire-fukushi.jp/kitamachi/</v>
+        <v>https://hatsukikai.or.jp/kitamachi/</v>
       </c>
       <c r="H43" t="str">
         <v/>
@@ -2404,7 +2404,7 @@
         <v>087-802-2650</v>
       </c>
       <c r="G46" t="str">
-        <v>https://www.sumire-fukushi.jp/nauraaterrace/</v>
+        <v>https://hatsukikai.or.jp/nauraaterrace/</v>
       </c>
       <c r="H46" t="str">
         <v/>
